--- a/Variable Definitions.xlsx
+++ b/Variable Definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelEskenazi/Desktop/Corpus/Data/Corpus Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8C4E76-4C49-F84F-BAF3-8BC1DAAF44A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17002958-CE34-4BB9-AFD5-E01B75C34B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="500" windowWidth="27360" windowHeight="15340" xr2:uid="{4488796D-1B57-C74D-8B8A-45DA354DD197}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{4488796D-1B57-C74D-8B8A-45DA354DD197}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="515">
   <si>
     <t>RECORDING_SESSION_LABEL</t>
   </si>
@@ -1017,9 +1017,6 @@
   </si>
   <si>
     <t>The mean LSA match score between the target and all provided responses. For example, pairwise LSA was used to compare the target “carts” with the responses provided in the cloze procedure (e.g., “horses,” “slower,” and “the”), and the LSA scores for all responses were averaged. This measure is an estimate of the semantic predictability of a given target word (i.e., could participants have a good sense for the general meaning of the upcoming word, even if they cannot predict exactly what that word will be)</t>
-  </si>
-  <si>
-    <t>Subcategory</t>
   </si>
   <si>
     <t>Vocabulary</t>
@@ -1831,7 +1828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1909,18 +1906,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2259,10 +2244,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="106" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="105.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22" style="9"/>
     <col min="2" max="9" width="22" style="13"/>
@@ -2272,971 +2257,971 @@
     <col min="161" max="16384" width="22" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:160" s="9" customFormat="1" ht="64" customHeight="1">
+    <row r="1" spans="1:160" s="9" customFormat="1" ht="63.95" customHeight="1">
       <c r="A1" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="V1" s="7" t="s">
+      <c r="X1" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y1" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="W1" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="X1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="Z1" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AR1" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AS1" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AT1" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AU1" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AV1" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AW1" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="AX1" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="AY1" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="BA1" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BB1" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BC1" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BD1" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BE1" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BF1" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BG1" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BH1" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="BH1" s="8" t="s">
+      <c r="BI1" s="8" t="s">
         <v>414</v>
-      </c>
-      <c r="BI1" s="8" t="s">
-        <v>415</v>
       </c>
       <c r="BJ1" s="8" t="s">
         <v>60</v>
       </c>
       <c r="BK1" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="BL1" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="BM1" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="BN1" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="BO1" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="BP1" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="BQ1" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="BR1" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="BS1" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="BT1" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="BU1" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="BV1" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="BL1" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="BM1" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="BN1" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="BO1" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="BP1" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="BQ1" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="BR1" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="BS1" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="BT1" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="BU1" s="8" t="s">
+      <c r="BW1" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="BV1" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="BW1" s="8" t="s">
+      <c r="BX1" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="BX1" s="8" t="s">
+      <c r="BY1" s="8" t="s">
         <v>427</v>
-      </c>
-      <c r="BY1" s="8" t="s">
-        <v>428</v>
       </c>
       <c r="BZ1" s="8" t="s">
         <v>76</v>
       </c>
       <c r="CA1" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="CB1" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="CB1" s="8" t="s">
+      <c r="CC1" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="CC1" s="8" t="s">
+      <c r="CD1" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="CD1" s="8" t="s">
+      <c r="CE1" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="CE1" s="8" t="s">
+      <c r="CF1" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="CF1" s="8" t="s">
+      <c r="CG1" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="CG1" s="8" t="s">
+      <c r="CH1" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="CH1" s="8" t="s">
+      <c r="CI1" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="CI1" s="8" t="s">
+      <c r="CJ1" s="28" t="s">
         <v>437</v>
       </c>
-      <c r="CJ1" s="32" t="s">
+      <c r="CK1" s="28" t="s">
         <v>438</v>
       </c>
-      <c r="CK1" s="32" t="s">
+      <c r="CL1" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="CL1" s="32" t="s">
+      <c r="CM1" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="CM1" s="32" t="s">
+      <c r="CN1" s="28" t="s">
         <v>441</v>
       </c>
-      <c r="CN1" s="32" t="s">
+      <c r="CO1" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="CO1" s="32" t="s">
+      <c r="CP1" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="CP1" s="32" t="s">
+      <c r="CQ1" s="28" t="s">
         <v>444</v>
       </c>
-      <c r="CQ1" s="32" t="s">
+      <c r="CR1" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="CR1" s="32" t="s">
+      <c r="CS1" s="28" t="s">
         <v>446</v>
       </c>
-      <c r="CS1" s="32" t="s">
+      <c r="CT1" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="CT1" s="32" t="s">
+      <c r="CU1" s="28" t="s">
         <v>448</v>
       </c>
-      <c r="CU1" s="32" t="s">
+      <c r="CV1" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="CV1" s="32" t="s">
+      <c r="CW1" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="CW1" s="32" t="s">
+      <c r="CX1" s="28" t="s">
         <v>451</v>
       </c>
-      <c r="CX1" s="32" t="s">
+      <c r="CY1" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="CY1" s="32" t="s">
+      <c r="CZ1" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="DA1" s="28" t="s">
         <v>453</v>
       </c>
-      <c r="CZ1" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="DA1" s="32" t="s">
+      <c r="DB1" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="DB1" s="32" t="s">
+      <c r="DC1" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="DC1" s="32" t="s">
+      <c r="DD1" s="28" t="s">
         <v>456</v>
       </c>
-      <c r="DD1" s="32" t="s">
+      <c r="DE1" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="DE1" s="32" t="s">
+      <c r="DF1" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="DF1" s="32" t="s">
+      <c r="DG1" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="DG1" s="32" t="s">
+      <c r="DH1" s="28" t="s">
         <v>460</v>
       </c>
-      <c r="DH1" s="32" t="s">
+      <c r="DI1" s="28" t="s">
         <v>461</v>
       </c>
-      <c r="DI1" s="32" t="s">
+      <c r="DJ1" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="DJ1" s="32" t="s">
+      <c r="DK1" s="28" t="s">
         <v>463</v>
       </c>
-      <c r="DK1" s="32" t="s">
+      <c r="DL1" s="28" t="s">
         <v>464</v>
       </c>
-      <c r="DL1" s="32" t="s">
+      <c r="DM1" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="DM1" s="32" t="s">
+      <c r="DN1" s="28" t="s">
         <v>466</v>
       </c>
-      <c r="DN1" s="32" t="s">
+      <c r="DO1" s="28" t="s">
         <v>467</v>
       </c>
-      <c r="DO1" s="32" t="s">
+      <c r="DP1" s="31" t="s">
         <v>468</v>
       </c>
-      <c r="DP1" s="35" t="s">
+      <c r="DQ1" s="32" t="s">
         <v>469</v>
       </c>
-      <c r="DQ1" s="36" t="s">
+      <c r="DR1" s="32" t="s">
         <v>470</v>
       </c>
-      <c r="DR1" s="36" t="s">
+      <c r="DS1" s="32" t="s">
         <v>471</v>
       </c>
-      <c r="DS1" s="36" t="s">
+      <c r="DT1" s="32" t="s">
         <v>472</v>
       </c>
-      <c r="DT1" s="36" t="s">
+      <c r="DU1" s="31" t="s">
         <v>473</v>
       </c>
-      <c r="DU1" s="35" t="s">
+      <c r="DV1" s="32" t="s">
         <v>474</v>
       </c>
-      <c r="DV1" s="36" t="s">
+      <c r="DW1" s="32" t="s">
         <v>475</v>
       </c>
-      <c r="DW1" s="36" t="s">
+      <c r="DX1" s="32" t="s">
         <v>476</v>
       </c>
-      <c r="DX1" s="36" t="s">
+      <c r="DY1" s="32" t="s">
         <v>477</v>
       </c>
-      <c r="DY1" s="36" t="s">
+      <c r="DZ1" s="28" t="s">
         <v>478</v>
       </c>
-      <c r="DZ1" s="32" t="s">
+      <c r="EA1" s="28" t="s">
         <v>479</v>
       </c>
-      <c r="EA1" s="32" t="s">
+      <c r="EB1" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="EB1" s="32" t="s">
+      <c r="EC1" s="28" t="s">
         <v>481</v>
       </c>
-      <c r="EC1" s="32" t="s">
+      <c r="ED1" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="ED1" s="32" t="s">
+      <c r="EE1" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="EE1" s="32" t="s">
+      <c r="EF1" s="28" t="s">
         <v>484</v>
       </c>
-      <c r="EF1" s="32" t="s">
+      <c r="EG1" s="28" t="s">
         <v>485</v>
       </c>
-      <c r="EG1" s="32" t="s">
+      <c r="EH1" s="28" t="s">
         <v>486</v>
       </c>
-      <c r="EH1" s="32" t="s">
+      <c r="EI1" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="EI1" s="32" t="s">
+      <c r="EJ1" s="28" t="s">
         <v>488</v>
       </c>
-      <c r="EJ1" s="32" t="s">
+      <c r="EK1" s="28" t="s">
         <v>489</v>
       </c>
-      <c r="EK1" s="32" t="s">
+      <c r="EL1" s="28" t="s">
         <v>490</v>
       </c>
-      <c r="EL1" s="32" t="s">
+      <c r="EM1" s="28" t="s">
         <v>491</v>
       </c>
-      <c r="EM1" s="32" t="s">
+      <c r="EN1" s="28" t="s">
         <v>492</v>
       </c>
-      <c r="EN1" s="32" t="s">
+      <c r="EO1" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="EP1" s="28" t="s">
         <v>493</v>
       </c>
-      <c r="EO1" s="32" t="s">
-        <v>505</v>
-      </c>
-      <c r="EP1" s="32" t="s">
+      <c r="EQ1" s="28" t="s">
         <v>494</v>
       </c>
-      <c r="EQ1" s="32" t="s">
+      <c r="ER1" s="28" t="s">
         <v>495</v>
       </c>
-      <c r="ER1" s="32" t="s">
+      <c r="ES1" s="28" t="s">
         <v>496</v>
       </c>
-      <c r="ES1" s="32" t="s">
+      <c r="ET1" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="ET1" s="32" t="s">
+      <c r="EU1" s="28" t="s">
         <v>498</v>
       </c>
-      <c r="EU1" s="32" t="s">
+      <c r="EV1" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="EW1" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="EX1" s="28" t="s">
         <v>499</v>
       </c>
-      <c r="EV1" s="32" t="s">
+      <c r="EY1" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="EZ1" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="FA1" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="FB1" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="FC1" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="FD1" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:160" ht="68.099999999999994" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP2" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ2" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT2" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV2" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW2" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ2" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD2" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE2" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF2" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH2" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ2" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK2" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL2" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM2" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN2" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO2" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP2" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ2" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR2" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS2" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT2" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU2" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV2" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW2" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX2" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY2" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ2" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA2" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB2" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC2" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD2" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE2" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF2" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG2" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH2" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI2" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ2" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK2" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL2" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM2" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN2" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO2" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP2" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ2" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR2" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS2" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT2" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU2" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="DV2" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="DW2" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="DX2" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="DY2" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="DZ2" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="EA2" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="EB2" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="EC2" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="ED2" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="EE2" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="EF2" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="EG2" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="EH2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="EI2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="EJ2" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="EK2" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="EL2" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="EM2" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="EN2" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="EO2" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="EP2" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="EQ2" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="ER2" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="ES2" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="ET2" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="EU2" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="EV2" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="EW1" s="32" t="s">
+      <c r="EW2" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="EX1" s="32" t="s">
-        <v>500</v>
-      </c>
-      <c r="EY1" s="32" t="s">
-        <v>501</v>
-      </c>
-      <c r="EZ1" s="32" t="s">
+      <c r="EX2" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="EY2" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="EZ2" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="FA1" s="32" t="s">
-        <v>502</v>
-      </c>
-      <c r="FB1" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="FC1" s="32" t="s">
+      <c r="FA2" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="FB2" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="FC2" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="FD1" s="33" t="s">
+      <c r="FD2" s="30" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:160" s="27" customFormat="1" ht="68" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z2" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA2" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB2" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC2" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD2" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE2" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF2" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG2" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH2" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI2" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK2" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL2" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN2" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO2" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP2" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ2" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR2" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS2" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT2" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU2" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV2" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW2" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX2" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY2" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ2" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA2" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB2" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC2" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD2" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE2" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF2" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG2" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH2" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI2" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ2" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK2" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL2" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM2" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN2" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO2" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP2" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ2" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR2" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS2" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT2" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU2" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV2" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW2" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX2" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY2" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ2" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA2" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB2" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC2" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD2" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE2" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF2" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG2" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH2" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI2" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ2" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK2" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL2" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM2" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN2" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO2" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP2" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ2" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR2" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS2" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT2" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU2" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV2" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW2" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX2" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY2" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ2" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA2" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB2" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC2" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD2" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE2" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF2" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG2" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH2" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI2" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ2" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK2" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL2" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM2" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN2" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO2" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP2" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ2" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR2" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS2" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT2" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU2" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV2" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW2" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX2" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY2" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ2" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA2" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB2" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC2" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED2" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE2" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF2" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG2" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH2" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI2" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ2" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK2" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL2" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM2" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN2" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO2" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP2" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ2" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER2" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES2" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET2" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU2" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV2" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW2" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX2" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="EY2" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ2" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="FA2" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="FB2" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="FC2" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="FD2" s="34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:160" ht="98" customHeight="1">
+    <row r="3" spans="1:160" ht="98.1" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>193</v>
       </c>
@@ -3313,7 +3298,7 @@
         <v>184</v>
       </c>
       <c r="Z3" s="18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AA3" s="18" t="s">
         <v>185</v>
@@ -3358,10 +3343,10 @@
         <v>207</v>
       </c>
       <c r="AO3" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="AP3" s="18" t="s">
         <v>352</v>
-      </c>
-      <c r="AP3" s="18" t="s">
-        <v>353</v>
       </c>
       <c r="AQ3" s="18" t="s">
         <v>280</v>
@@ -3466,16 +3451,16 @@
         <v>301</v>
       </c>
       <c r="BY3" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BZ3" s="19" t="s">
         <v>302</v>
       </c>
       <c r="CA3" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="CB3" s="19" t="s">
         <v>355</v>
-      </c>
-      <c r="CB3" s="19" t="s">
-        <v>356</v>
       </c>
       <c r="CC3" s="19" t="s">
         <v>303</v>
@@ -3577,7 +3562,7 @@
         <v>234</v>
       </c>
       <c r="DJ3" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="DK3" s="3" t="s">
         <v>235</v>
@@ -3682,13 +3667,13 @@
         <v>268</v>
       </c>
       <c r="ES3" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="ET3" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="ET3" s="20" t="s">
-        <v>343</v>
-      </c>
       <c r="EU3" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="EV3" s="20" t="s">
         <v>269</v>
@@ -4200,7 +4185,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:160" ht="67" customHeight="1">
+    <row r="5" spans="1:160" ht="66.95" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>198</v>
       </c>
@@ -4682,7 +4667,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:160" ht="23" customHeight="1">
+    <row r="6" spans="1:160" ht="23.1" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>191</v>
       </c>
@@ -5164,7 +5149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:160" ht="22" customHeight="1">
+    <row r="7" spans="1:160" ht="21.95" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>192</v>
       </c>
@@ -5646,7 +5631,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:160" ht="65" customHeight="1">
+    <row r="8" spans="1:160" ht="65.099999999999994" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>197</v>
       </c>
@@ -5992,7 +5977,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:160" ht="35" customHeight="1">
+    <row r="9" spans="1:160" ht="35.1" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>278</v>
       </c>
@@ -6021,926 +6006,940 @@
         <v>279</v>
       </c>
       <c r="J9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="V9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="W9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="X9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AA9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AB9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AC9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AD9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AE9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AF9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AG9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AH9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AI9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AJ9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AK9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AL9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AM9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AN9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AO9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AP9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AQ9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AR9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AS9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AT9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AU9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AV9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AW9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AX9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AY9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AZ9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="BA9" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="BB9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BC9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BD9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BE9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BF9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BG9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BH9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BI9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BJ9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BK9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BL9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BM9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BN9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BO9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BP9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BQ9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BR9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BS9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BT9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BU9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BV9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BW9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BX9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BY9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="BZ9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="CA9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="CB9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="CC9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="CD9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="CE9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="CF9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="CG9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="CH9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="CI9" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="CJ9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="CK9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="CL9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="CM9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="CN9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="CO9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="CP9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="CQ9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="CR9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="CS9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="CT9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="CU9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="CV9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="CW9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="CX9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="CY9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="CZ9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DA9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DB9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DC9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DD9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DE9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DF9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DG9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DH9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DI9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DJ9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DK9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DL9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DM9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DN9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DO9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DP9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DQ9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DR9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DS9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DT9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DU9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DV9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DW9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DX9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DY9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="DZ9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EA9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EB9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EC9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="ED9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EE9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EF9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EG9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EH9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EI9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EJ9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EK9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EL9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EM9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EN9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EO9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EP9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EQ9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="ER9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="ES9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="ET9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EU9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EV9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EW9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EX9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EY9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="EZ9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="FA9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="FB9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="FC9" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="FD9" s="21" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:160" ht="48.95" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="R10" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="S10" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="T10" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="U10" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="V10" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="R9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="S9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="T9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="U9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="V9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="W9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="X9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="Z9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AA9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AB9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AC9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AD9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AE9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AF9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AG9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AH9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AI9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AJ9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AK9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AL9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AM9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AN9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AO9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AP9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AQ9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AR9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AS9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AT9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AU9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AV9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AW9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AX9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AY9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AZ9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="BA9" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="BB9" s="19" t="s">
+      <c r="W10" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="X10" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y10" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z10" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA10" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB10" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC10" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD10" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE10" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF10" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="AG10" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH10" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI10" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ10" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="AK10" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="AL10" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="AM10" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="AN10" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="AO10" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="AP10" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="AQ10" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="AR10" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="AS10" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="AT10" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="AU10" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="AV10" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="AW10" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="AX10" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="AY10" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="AZ10" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="BA10" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="BB10" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="BC10" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="BD10" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="BE10" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="BF10" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="BG10" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="BH10" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="BI10" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="BJ10" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="BK10" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="BL10" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="BM10" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="BN10" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="BO10" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="BP10" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="BQ10" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="BR10" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="BS10" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="BT10" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="BC9" s="19" t="s">
+      <c r="BU10" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="BD9" s="19" t="s">
+      <c r="BV10" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="BE9" s="19" t="s">
+      <c r="BW10" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="BF9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="BG9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="BH9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="BI9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="BJ9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="BK9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="BL9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="BM9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="BN9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="BO9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="BP9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="BQ9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="BR9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="BS9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="BT9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="BU9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="BV9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="BW9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="BX9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="BY9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="BZ9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="CA9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="CB9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="CC9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="CD9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="CE9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="CF9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="CG9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="CH9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="CI9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="CJ9" s="20" t="s">
+      <c r="BX10" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="BY10" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="BZ10" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="CA10" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="CB10" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="CC10" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="CD10" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="CE10" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="CF10" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="CG10" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="CH10" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="CI10" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="CJ10" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="CK10" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="CL10" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="CM10" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="CN10" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="CO10" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="CP10" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="CQ10" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="CR10" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="CS10" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="CT10" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="CU10" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="CV10" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="CW10" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="CX10" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="CY10" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="CZ10" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="CK9" s="20" t="s">
+      <c r="DA10" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="CL9" s="20" t="s">
+      <c r="DB10" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="CM9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="CN9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="CO9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="CP9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="CQ9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="CR9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="CS9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="CT9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="CU9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="CV9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="CW9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="CX9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="CY9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="CZ9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DA9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DB9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DC9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DD9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DE9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DF9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DG9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DH9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DI9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DJ9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DK9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DL9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DM9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DN9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DO9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DP9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DQ9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DR9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DS9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DT9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DU9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DV9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DW9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DX9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DY9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="DZ9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EA9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EB9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EC9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="ED9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EE9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EF9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EG9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EH9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EI9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EJ9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EK9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EL9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EM9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EN9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EO9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EP9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EQ9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="ER9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="ES9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="ET9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EU9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EV9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EW9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EX9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EY9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="EZ9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="FA9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="FB9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="FC9" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="FD9" s="21" t="s">
-        <v>514</v>
+      <c r="DC10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DD10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DE10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DF10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DG10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DH10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DI10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DJ10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DK10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DL10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DM10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DN10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DO10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DP10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DQ10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DR10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DS10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DT10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DU10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DV10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DW10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DX10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DY10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="DZ10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="EA10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="EB10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="EC10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="ED10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="EE10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="EF10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="EG10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="EH10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="EI10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="EJ10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="EK10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="EL10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="EM10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="EN10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="EO10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="EP10" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="EQ10" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="ER10" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="ES10" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="ET10" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="EU10" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="EV10" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="EW10" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="EX10" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="EY10" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="EZ10" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="FA10" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="FB10" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="FC10" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="FD10" s="21" t="s">
+        <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:160" ht="49" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="P10" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q10" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="R10" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="S10" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="T10" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="U10" s="18" t="s">
-        <v>511</v>
-      </c>
-      <c r="V10" s="18" t="s">
-        <v>511</v>
-      </c>
-      <c r="W10" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="X10" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y10" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z10" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA10" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="AB10" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="AC10" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="AD10" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="AE10" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="AF10" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="AG10" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="AH10" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="AI10" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="AJ10" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="AK10" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="AL10" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="AM10" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="AN10" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="AO10" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="AP10" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="AQ10" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="AR10" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="AS10" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="AT10" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="AU10" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="AV10" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="AW10" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="AX10" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="AY10" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="AZ10" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="BA10" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="BB10" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="BC10" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="BD10" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="BE10" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="BF10" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="BG10" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="BH10" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="BI10" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="BJ10" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="BK10" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="BL10" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="BM10" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="BN10" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="BO10" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="BP10" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="BQ10" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="BR10" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="BS10" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="BT10" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="BU10" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="BV10" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="BW10" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="BX10" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="BY10" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="BZ10" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="CA10" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="CB10" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="CC10" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="CD10" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="CE10" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="CF10" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="CG10" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="CH10" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="CI10" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="CJ10" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="CK10" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="CL10" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="CM10" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="CN10" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="CO10" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="CP10" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="CQ10" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="CR10" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="CS10" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="CT10" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="CU10" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="CV10" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="CW10" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="CX10" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="CY10" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="CZ10" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="DA10" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="DB10" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="DC10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DD10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DE10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DF10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DG10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DH10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DI10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DJ10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DK10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DL10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DM10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DN10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DO10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DP10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DQ10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DR10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DS10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DT10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DU10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DV10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DW10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DX10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DY10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="DZ10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="EA10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="EB10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="EC10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="ED10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="EE10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="EF10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="EG10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="EH10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="EI10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="EJ10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="EK10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="EL10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="EM10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="EN10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="EO10" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="EP10" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="EQ10" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="ER10" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="ES10" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="ET10" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="EU10" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="EV10" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="EW10" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="EX10" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="EY10" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="EZ10" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="FA10" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="FB10" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="FC10" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="FD10" s="21" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:160" ht="106" customHeight="1" thickBot="1">
+    <row r="11" spans="1:160" ht="105.95" customHeight="1" thickBot="1">
       <c r="A11" s="12" t="s">
         <v>293</v>
       </c>
